--- a/nzmiq_flight_data_as_of_2021_10_04_Time_10_PM_NZT.xlsx
+++ b/nzmiq_flight_data_as_of_2021_10_04_Time_10_PM_NZT.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PersonalProjects\NZMIQFlightChecker\nzmiq_flight_details_datafetcher\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086BD53B-9242-4041-83F8-0926503DC6AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5754" uniqueCount="263">
   <si>
     <t>Date of Arrival</t>
   </si>
@@ -809,23 +814,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -840,13 +858,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1134,43 +1164,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G822"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1354,7 +1389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1377,7 +1412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1400,7 +1435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1423,7 +1458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1446,7 +1481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1469,7 +1504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1492,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1515,7 +1550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1561,7 +1596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1584,7 +1619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1607,7 +1642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1630,7 +1665,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1653,7 +1688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1699,7 +1734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1722,7 +1757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1745,7 +1780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1768,7 +1803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -1791,7 +1826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1814,7 +1849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1837,7 +1872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1860,7 +1895,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1883,7 +1918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1906,7 +1941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1929,7 +1964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1952,7 +1987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -1975,7 +2010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1998,7 +2033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -2021,7 +2056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -2044,7 +2079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2067,7 +2102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2090,7 +2125,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2113,7 +2148,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2136,7 +2171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2159,7 +2194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2182,7 +2217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -2205,7 +2240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2228,7 +2263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2251,7 +2286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -2274,7 +2309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2297,7 +2332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -2320,7 +2355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -2343,7 +2378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -2366,7 +2401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -2389,7 +2424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -2412,7 +2447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2435,7 +2470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -2458,7 +2493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -2481,7 +2516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -2504,7 +2539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -2527,7 +2562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -2550,7 +2585,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -2573,7 +2608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -2596,7 +2631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -2619,7 +2654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -2642,7 +2677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -2665,7 +2700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -2688,7 +2723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -2711,7 +2746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -2734,7 +2769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -2757,7 +2792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -2780,7 +2815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -2803,7 +2838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -2826,7 +2861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -2849,7 +2884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -2872,7 +2907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -2895,7 +2930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -2918,7 +2953,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -2941,7 +2976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -2964,7 +2999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -2987,7 +3022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -3010,7 +3045,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -3033,7 +3068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>111</v>
       </c>
@@ -3056,7 +3091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -3079,7 +3114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -3102,7 +3137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>111</v>
       </c>
@@ -3125,7 +3160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -3148,7 +3183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -3171,7 +3206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -3194,7 +3229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -3217,7 +3252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -3240,7 +3275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -3263,7 +3298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -3286,7 +3321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -3309,7 +3344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -3332,7 +3367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -3355,7 +3390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -3378,7 +3413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -3401,7 +3436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -3424,7 +3459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -3447,7 +3482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -3470,7 +3505,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -3493,7 +3528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3516,7 +3551,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -3539,7 +3574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -3562,7 +3597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -3585,7 +3620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -3608,7 +3643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -3631,7 +3666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -3654,7 +3689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -3677,7 +3712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>118</v>
       </c>
@@ -3700,7 +3735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -3723,7 +3758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -3746,7 +3781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -3769,7 +3804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3792,7 +3827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -3815,7 +3850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3838,7 +3873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -3861,7 +3896,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3884,7 +3919,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3907,7 +3942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3930,7 +3965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3953,7 +3988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -3976,7 +4011,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -3999,7 +4034,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -4022,7 +4057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -4045,7 +4080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -4068,7 +4103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>121</v>
       </c>
@@ -4091,7 +4126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>121</v>
       </c>
@@ -4114,7 +4149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>121</v>
       </c>
@@ -4137,7 +4172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -4160,7 +4195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -4183,7 +4218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -4206,7 +4241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -4229,7 +4264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>122</v>
       </c>
@@ -4252,7 +4287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -4275,7 +4310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -4298,7 +4333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>123</v>
       </c>
@@ -4321,7 +4356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -4344,7 +4379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -4367,7 +4402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>124</v>
       </c>
@@ -4390,7 +4425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>124</v>
       </c>
@@ -4413,7 +4448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>124</v>
       </c>
@@ -4436,7 +4471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>124</v>
       </c>
@@ -4459,7 +4494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>124</v>
       </c>
@@ -4482,7 +4517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>124</v>
       </c>
@@ -4505,7 +4540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>124</v>
       </c>
@@ -4528,7 +4563,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>125</v>
       </c>
@@ -4551,7 +4586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>125</v>
       </c>
@@ -4574,7 +4609,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>125</v>
       </c>
@@ -4597,7 +4632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>125</v>
       </c>
@@ -4620,7 +4655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>125</v>
       </c>
@@ -4643,7 +4678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>126</v>
       </c>
@@ -4666,7 +4701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>126</v>
       </c>
@@ -4689,7 +4724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>126</v>
       </c>
@@ -4712,7 +4747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>126</v>
       </c>
@@ -4735,7 +4770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>126</v>
       </c>
@@ -4758,7 +4793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>126</v>
       </c>
@@ -4781,7 +4816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>126</v>
       </c>
@@ -4804,7 +4839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>127</v>
       </c>
@@ -4827,7 +4862,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>127</v>
       </c>
@@ -4850,7 +4885,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>127</v>
       </c>
@@ -4873,7 +4908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>127</v>
       </c>
@@ -4896,7 +4931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>130</v>
       </c>
@@ -4919,7 +4954,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>130</v>
       </c>
@@ -4942,7 +4977,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>130</v>
       </c>
@@ -4965,7 +5000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>130</v>
       </c>
@@ -4988,7 +5023,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>130</v>
       </c>
@@ -5011,7 +5046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>130</v>
       </c>
@@ -5034,7 +5069,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>130</v>
       </c>
@@ -5057,7 +5092,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>136</v>
       </c>
@@ -5080,7 +5115,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>136</v>
       </c>
@@ -5103,7 +5138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>136</v>
       </c>
@@ -5126,7 +5161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>136</v>
       </c>
@@ -5149,7 +5184,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>136</v>
       </c>
@@ -5172,7 +5207,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>136</v>
       </c>
@@ -5195,7 +5230,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>136</v>
       </c>
@@ -5218,7 +5253,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>136</v>
       </c>
@@ -5241,7 +5276,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>136</v>
       </c>
@@ -5264,7 +5299,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>141</v>
       </c>
@@ -5287,7 +5322,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>141</v>
       </c>
@@ -5310,7 +5345,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>141</v>
       </c>
@@ -5333,7 +5368,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>141</v>
       </c>
@@ -5356,7 +5391,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>141</v>
       </c>
@@ -5379,7 +5414,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>141</v>
       </c>
@@ -5402,7 +5437,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -5425,7 +5460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -5448,7 +5483,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>144</v>
       </c>
@@ -5471,7 +5506,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>144</v>
       </c>
@@ -5494,7 +5529,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>144</v>
       </c>
@@ -5517,7 +5552,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>145</v>
       </c>
@@ -5540,7 +5575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>145</v>
       </c>
@@ -5563,7 +5598,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>145</v>
       </c>
@@ -5586,7 +5621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>145</v>
       </c>
@@ -5609,7 +5644,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>145</v>
       </c>
@@ -5632,7 +5667,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>145</v>
       </c>
@@ -5655,7 +5690,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>145</v>
       </c>
@@ -5678,7 +5713,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>148</v>
       </c>
@@ -5701,7 +5736,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>148</v>
       </c>
@@ -5724,7 +5759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>148</v>
       </c>
@@ -5747,7 +5782,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>148</v>
       </c>
@@ -5770,7 +5805,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>148</v>
       </c>
@@ -5793,7 +5828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>148</v>
       </c>
@@ -5816,7 +5851,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>148</v>
       </c>
@@ -5839,7 +5874,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>148</v>
       </c>
@@ -5862,7 +5897,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>148</v>
       </c>
@@ -5885,7 +5920,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>152</v>
       </c>
@@ -5908,7 +5943,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>152</v>
       </c>
@@ -5931,7 +5966,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>152</v>
       </c>
@@ -5954,7 +5989,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>152</v>
       </c>
@@ -5977,7 +6012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>152</v>
       </c>
@@ -6000,7 +6035,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>152</v>
       </c>
@@ -6023,7 +6058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>154</v>
       </c>
@@ -6046,7 +6081,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>154</v>
       </c>
@@ -6069,7 +6104,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>154</v>
       </c>
@@ -6092,7 +6127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>154</v>
       </c>
@@ -6115,7 +6150,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>154</v>
       </c>
@@ -6138,7 +6173,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>154</v>
       </c>
@@ -6161,7 +6196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>154</v>
       </c>
@@ -6184,7 +6219,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>158</v>
       </c>
@@ -6207,7 +6242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>158</v>
       </c>
@@ -6230,7 +6265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -6253,7 +6288,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>158</v>
       </c>
@@ -6276,7 +6311,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -6299,7 +6334,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>158</v>
       </c>
@@ -6322,7 +6357,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>158</v>
       </c>
@@ -6345,7 +6380,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>158</v>
       </c>
@@ -6368,7 +6403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>158</v>
       </c>
@@ -6391,7 +6426,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -6414,7 +6449,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>159</v>
       </c>
@@ -6437,7 +6472,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>159</v>
       </c>
@@ -6460,7 +6495,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>159</v>
       </c>
@@ -6483,7 +6518,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>159</v>
       </c>
@@ -6506,7 +6541,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>159</v>
       </c>
@@ -6529,7 +6564,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>159</v>
       </c>
@@ -6552,7 +6587,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>160</v>
       </c>
@@ -6575,7 +6610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>160</v>
       </c>
@@ -6598,7 +6633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>160</v>
       </c>
@@ -6621,7 +6656,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>160</v>
       </c>
@@ -6644,7 +6679,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>160</v>
       </c>
@@ -6667,7 +6702,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>161</v>
       </c>
@@ -6690,7 +6725,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>161</v>
       </c>
@@ -6713,7 +6748,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>161</v>
       </c>
@@ -6736,7 +6771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>161</v>
       </c>
@@ -6759,7 +6794,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>161</v>
       </c>
@@ -6782,7 +6817,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>161</v>
       </c>
@@ -6805,7 +6840,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>162</v>
       </c>
@@ -6828,7 +6863,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>162</v>
       </c>
@@ -6851,7 +6886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>162</v>
       </c>
@@ -6874,7 +6909,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>162</v>
       </c>
@@ -6897,7 +6932,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>162</v>
       </c>
@@ -6920,7 +6955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>162</v>
       </c>
@@ -6943,7 +6978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>162</v>
       </c>
@@ -6966,7 +7001,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>162</v>
       </c>
@@ -6989,7 +7024,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>164</v>
       </c>
@@ -7012,7 +7047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>164</v>
       </c>
@@ -7035,7 +7070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>164</v>
       </c>
@@ -7058,7 +7093,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>164</v>
       </c>
@@ -7081,7 +7116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>164</v>
       </c>
@@ -7104,7 +7139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>164</v>
       </c>
@@ -7127,7 +7162,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>164</v>
       </c>
@@ -7150,7 +7185,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>166</v>
       </c>
@@ -7173,7 +7208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>166</v>
       </c>
@@ -7196,7 +7231,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>166</v>
       </c>
@@ -7219,7 +7254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>166</v>
       </c>
@@ -7242,7 +7277,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>166</v>
       </c>
@@ -7265,7 +7300,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>166</v>
       </c>
@@ -7288,7 +7323,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>167</v>
       </c>
@@ -7311,7 +7346,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>167</v>
       </c>
@@ -7334,7 +7369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>167</v>
       </c>
@@ -7357,7 +7392,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>167</v>
       </c>
@@ -7380,7 +7415,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>167</v>
       </c>
@@ -7403,7 +7438,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>167</v>
       </c>
@@ -7426,7 +7461,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>167</v>
       </c>
@@ -7449,7 +7484,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>167</v>
       </c>
@@ -7472,7 +7507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>167</v>
       </c>
@@ -7495,7 +7530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>168</v>
       </c>
@@ -7518,7 +7553,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>168</v>
       </c>
@@ -7541,7 +7576,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>168</v>
       </c>
@@ -7564,7 +7599,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>168</v>
       </c>
@@ -7587,7 +7622,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>168</v>
       </c>
@@ -7610,7 +7645,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>168</v>
       </c>
@@ -7633,7 +7668,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>170</v>
       </c>
@@ -7656,7 +7691,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>170</v>
       </c>
@@ -7679,7 +7714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>170</v>
       </c>
@@ -7702,7 +7737,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>170</v>
       </c>
@@ -7725,7 +7760,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>170</v>
       </c>
@@ -7748,7 +7783,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>171</v>
       </c>
@@ -7771,7 +7806,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>171</v>
       </c>
@@ -7794,7 +7829,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>171</v>
       </c>
@@ -7817,7 +7852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>171</v>
       </c>
@@ -7840,7 +7875,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>171</v>
       </c>
@@ -7863,7 +7898,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>171</v>
       </c>
@@ -7886,7 +7921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>172</v>
       </c>
@@ -7909,7 +7944,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>172</v>
       </c>
@@ -7932,7 +7967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>172</v>
       </c>
@@ -7955,7 +7990,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>172</v>
       </c>
@@ -7978,7 +8013,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>172</v>
       </c>
@@ -8001,7 +8036,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>172</v>
       </c>
@@ -8024,7 +8059,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>172</v>
       </c>
@@ -8047,7 +8082,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>172</v>
       </c>
@@ -8070,7 +8105,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>173</v>
       </c>
@@ -8093,7 +8128,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>173</v>
       </c>
@@ -8116,7 +8151,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>173</v>
       </c>
@@ -8139,7 +8174,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>173</v>
       </c>
@@ -8162,7 +8197,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>173</v>
       </c>
@@ -8185,7 +8220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>173</v>
       </c>
@@ -8208,7 +8243,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>174</v>
       </c>
@@ -8231,7 +8266,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>174</v>
       </c>
@@ -8254,7 +8289,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>174</v>
       </c>
@@ -8277,7 +8312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>174</v>
       </c>
@@ -8300,7 +8335,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>174</v>
       </c>
@@ -8323,7 +8358,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>174</v>
       </c>
@@ -8346,7 +8381,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>175</v>
       </c>
@@ -8369,7 +8404,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>175</v>
       </c>
@@ -8392,7 +8427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>175</v>
       </c>
@@ -8415,7 +8450,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>175</v>
       </c>
@@ -8438,7 +8473,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>175</v>
       </c>
@@ -8461,7 +8496,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>175</v>
       </c>
@@ -8484,7 +8519,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>175</v>
       </c>
@@ -8507,7 +8542,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>175</v>
       </c>
@@ -8530,7 +8565,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>175</v>
       </c>
@@ -8553,7 +8588,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>176</v>
       </c>
@@ -8576,7 +8611,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>176</v>
       </c>
@@ -8599,7 +8634,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>176</v>
       </c>
@@ -8622,7 +8657,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>176</v>
       </c>
@@ -8645,7 +8680,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>176</v>
       </c>
@@ -8668,7 +8703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>176</v>
       </c>
@@ -8691,7 +8726,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>178</v>
       </c>
@@ -8714,7 +8749,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>178</v>
       </c>
@@ -8737,7 +8772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>178</v>
       </c>
@@ -8760,7 +8795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>178</v>
       </c>
@@ -8783,7 +8818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>178</v>
       </c>
@@ -8806,7 +8841,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>179</v>
       </c>
@@ -8829,7 +8864,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>179</v>
       </c>
@@ -8852,7 +8887,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>179</v>
       </c>
@@ -8875,7 +8910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>179</v>
       </c>
@@ -8898,7 +8933,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>179</v>
       </c>
@@ -8921,7 +8956,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>179</v>
       </c>
@@ -8944,7 +8979,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>180</v>
       </c>
@@ -8967,7 +9002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>180</v>
       </c>
@@ -8990,7 +9025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>180</v>
       </c>
@@ -9013,7 +9048,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>180</v>
       </c>
@@ -9036,7 +9071,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>180</v>
       </c>
@@ -9059,7 +9094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>180</v>
       </c>
@@ -9082,7 +9117,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>180</v>
       </c>
@@ -9105,7 +9140,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>180</v>
       </c>
@@ -9128,7 +9163,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>181</v>
       </c>
@@ -9151,7 +9186,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>181</v>
       </c>
@@ -9174,7 +9209,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>181</v>
       </c>
@@ -9197,7 +9232,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>181</v>
       </c>
@@ -9220,7 +9255,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>181</v>
       </c>
@@ -9243,7 +9278,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>181</v>
       </c>
@@ -9266,7 +9301,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>185</v>
       </c>
@@ -9289,7 +9324,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>185</v>
       </c>
@@ -9312,7 +9347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>185</v>
       </c>
@@ -9335,7 +9370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>185</v>
       </c>
@@ -9358,7 +9393,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>185</v>
       </c>
@@ -9381,7 +9416,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>185</v>
       </c>
@@ -9404,7 +9439,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>186</v>
       </c>
@@ -9427,7 +9462,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>186</v>
       </c>
@@ -9450,7 +9485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>186</v>
       </c>
@@ -9473,7 +9508,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>186</v>
       </c>
@@ -9496,7 +9531,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>186</v>
       </c>
@@ -9519,7 +9554,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>186</v>
       </c>
@@ -9542,7 +9577,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>186</v>
       </c>
@@ -9565,7 +9600,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>186</v>
       </c>
@@ -9588,7 +9623,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>186</v>
       </c>
@@ -9611,7 +9646,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>186</v>
       </c>
@@ -9634,7 +9669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>187</v>
       </c>
@@ -9657,7 +9692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>187</v>
       </c>
@@ -9680,7 +9715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>187</v>
       </c>
@@ -9703,7 +9738,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>187</v>
       </c>
@@ -9726,7 +9761,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>187</v>
       </c>
@@ -9749,7 +9784,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>187</v>
       </c>
@@ -9772,7 +9807,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>188</v>
       </c>
@@ -9795,7 +9830,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>188</v>
       </c>
@@ -9818,7 +9853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>188</v>
       </c>
@@ -9841,7 +9876,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>188</v>
       </c>
@@ -9864,7 +9899,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>188</v>
       </c>
@@ -9887,7 +9922,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>188</v>
       </c>
@@ -9910,7 +9945,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>188</v>
       </c>
@@ -9933,7 +9968,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>194</v>
       </c>
@@ -9956,7 +9991,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>194</v>
       </c>
@@ -9979,7 +10014,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>194</v>
       </c>
@@ -10002,7 +10037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>194</v>
       </c>
@@ -10025,7 +10060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>194</v>
       </c>
@@ -10048,7 +10083,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>194</v>
       </c>
@@ -10071,7 +10106,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>194</v>
       </c>
@@ -10094,7 +10129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>194</v>
       </c>
@@ -10117,7 +10152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>195</v>
       </c>
@@ -10140,7 +10175,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>195</v>
       </c>
@@ -10163,7 +10198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>195</v>
       </c>
@@ -10186,7 +10221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>195</v>
       </c>
@@ -10209,7 +10244,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>195</v>
       </c>
@@ -10232,7 +10267,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>195</v>
       </c>
@@ -10255,7 +10290,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>195</v>
       </c>
@@ -10278,7 +10313,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>195</v>
       </c>
@@ -10301,7 +10336,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>195</v>
       </c>
@@ -10324,7 +10359,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>198</v>
       </c>
@@ -10347,7 +10382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>198</v>
       </c>
@@ -10370,7 +10405,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>198</v>
       </c>
@@ -10393,7 +10428,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>198</v>
       </c>
@@ -10416,7 +10451,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>198</v>
       </c>
@@ -10439,7 +10474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>198</v>
       </c>
@@ -10462,7 +10497,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>200</v>
       </c>
@@ -10485,7 +10520,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>200</v>
       </c>
@@ -10508,7 +10543,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>200</v>
       </c>
@@ -10531,7 +10566,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>200</v>
       </c>
@@ -10554,7 +10589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>200</v>
       </c>
@@ -10577,7 +10612,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>200</v>
       </c>
@@ -10600,7 +10635,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>200</v>
       </c>
@@ -10623,7 +10658,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>201</v>
       </c>
@@ -10646,7 +10681,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>201</v>
       </c>
@@ -10669,7 +10704,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>201</v>
       </c>
@@ -10692,7 +10727,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>201</v>
       </c>
@@ -10715,7 +10750,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>201</v>
       </c>
@@ -10738,7 +10773,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>201</v>
       </c>
@@ -10761,7 +10796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>201</v>
       </c>
@@ -10784,7 +10819,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>201</v>
       </c>
@@ -10807,7 +10842,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>201</v>
       </c>
@@ -10830,7 +10865,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>201</v>
       </c>
@@ -10853,7 +10888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>201</v>
       </c>
@@ -10876,7 +10911,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>202</v>
       </c>
@@ -10899,7 +10934,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>202</v>
       </c>
@@ -10922,7 +10957,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>202</v>
       </c>
@@ -10945,7 +10980,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>202</v>
       </c>
@@ -10968,7 +11003,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>202</v>
       </c>
@@ -10991,7 +11026,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>202</v>
       </c>
@@ -11014,7 +11049,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>203</v>
       </c>
@@ -11037,7 +11072,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>203</v>
       </c>
@@ -11060,7 +11095,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>203</v>
       </c>
@@ -11083,7 +11118,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>203</v>
       </c>
@@ -11106,7 +11141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>203</v>
       </c>
@@ -11129,7 +11164,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>203</v>
       </c>
@@ -11152,7 +11187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>203</v>
       </c>
@@ -11175,7 +11210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>204</v>
       </c>
@@ -11198,7 +11233,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>204</v>
       </c>
@@ -11221,7 +11256,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>204</v>
       </c>
@@ -11244,7 +11279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>204</v>
       </c>
@@ -11267,7 +11302,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>204</v>
       </c>
@@ -11290,7 +11325,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>204</v>
       </c>
@@ -11313,7 +11348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>204</v>
       </c>
@@ -11336,7 +11371,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>205</v>
       </c>
@@ -11359,7 +11394,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>205</v>
       </c>
@@ -11382,7 +11417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>205</v>
       </c>
@@ -11405,7 +11440,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>205</v>
       </c>
@@ -11428,7 +11463,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>205</v>
       </c>
@@ -11451,7 +11486,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>205</v>
       </c>
@@ -11474,7 +11509,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>205</v>
       </c>
@@ -11497,7 +11532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>205</v>
       </c>
@@ -11520,7 +11555,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>206</v>
       </c>
@@ -11543,7 +11578,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>206</v>
       </c>
@@ -11566,7 +11601,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>206</v>
       </c>
@@ -11589,7 +11624,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>206</v>
       </c>
@@ -11612,7 +11647,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>206</v>
       </c>
@@ -11635,7 +11670,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>206</v>
       </c>
@@ -11658,7 +11693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>207</v>
       </c>
@@ -11681,7 +11716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>207</v>
       </c>
@@ -11704,7 +11739,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>207</v>
       </c>
@@ -11727,7 +11762,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>207</v>
       </c>
@@ -11750,7 +11785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>207</v>
       </c>
@@ -11773,7 +11808,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>207</v>
       </c>
@@ -11796,7 +11831,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>207</v>
       </c>
@@ -11819,7 +11854,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>208</v>
       </c>
@@ -11842,7 +11877,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>208</v>
       </c>
@@ -11865,7 +11900,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>208</v>
       </c>
@@ -11888,7 +11923,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>208</v>
       </c>
@@ -11911,7 +11946,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>208</v>
       </c>
@@ -11934,7 +11969,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>208</v>
       </c>
@@ -11957,7 +11992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>208</v>
       </c>
@@ -11980,7 +12015,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>208</v>
       </c>
@@ -12003,7 +12038,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>208</v>
       </c>
@@ -12026,7 +12061,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>208</v>
       </c>
@@ -12049,7 +12084,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>208</v>
       </c>
@@ -12072,7 +12107,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>209</v>
       </c>
@@ -12095,7 +12130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>209</v>
       </c>
@@ -12118,7 +12153,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>209</v>
       </c>
@@ -12141,7 +12176,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>209</v>
       </c>
@@ -12164,7 +12199,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>209</v>
       </c>
@@ -12187,7 +12222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>209</v>
       </c>
@@ -12210,7 +12245,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>210</v>
       </c>
@@ -12233,7 +12268,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>210</v>
       </c>
@@ -12256,7 +12291,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>210</v>
       </c>
@@ -12279,7 +12314,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>210</v>
       </c>
@@ -12302,7 +12337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>210</v>
       </c>
@@ -12325,7 +12360,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>210</v>
       </c>
@@ -12348,7 +12383,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>210</v>
       </c>
@@ -12371,7 +12406,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>210</v>
       </c>
@@ -12394,7 +12429,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>211</v>
       </c>
@@ -12417,7 +12452,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>211</v>
       </c>
@@ -12440,7 +12475,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>211</v>
       </c>
@@ -12463,7 +12498,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>211</v>
       </c>
@@ -12486,7 +12521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>211</v>
       </c>
@@ -12509,7 +12544,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>211</v>
       </c>
@@ -12532,7 +12567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>211</v>
       </c>
@@ -12555,7 +12590,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>212</v>
       </c>
@@ -12578,7 +12613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>212</v>
       </c>
@@ -12601,7 +12636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>212</v>
       </c>
@@ -12624,7 +12659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>212</v>
       </c>
@@ -12647,7 +12682,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>212</v>
       </c>
@@ -12670,7 +12705,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>212</v>
       </c>
@@ -12693,7 +12728,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>212</v>
       </c>
@@ -12716,7 +12751,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>212</v>
       </c>
@@ -12739,7 +12774,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>212</v>
       </c>
@@ -12762,7 +12797,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>213</v>
       </c>
@@ -12785,7 +12820,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>213</v>
       </c>
@@ -12808,7 +12843,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>213</v>
       </c>
@@ -12831,7 +12866,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>213</v>
       </c>
@@ -12854,7 +12889,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>213</v>
       </c>
@@ -12877,7 +12912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>214</v>
       </c>
@@ -12900,7 +12935,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>214</v>
       </c>
@@ -12923,7 +12958,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>214</v>
       </c>
@@ -12946,7 +12981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>214</v>
       </c>
@@ -12969,7 +13004,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>214</v>
       </c>
@@ -12992,7 +13027,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>214</v>
       </c>
@@ -13015,7 +13050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>214</v>
       </c>
@@ -13038,7 +13073,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>215</v>
       </c>
@@ -13061,7 +13096,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>215</v>
       </c>
@@ -13084,7 +13119,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>215</v>
       </c>
@@ -13107,7 +13142,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>215</v>
       </c>
@@ -13130,7 +13165,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>215</v>
       </c>
@@ -13153,7 +13188,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>215</v>
       </c>
@@ -13176,7 +13211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>215</v>
       </c>
@@ -13199,7 +13234,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>215</v>
       </c>
@@ -13222,7 +13257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>215</v>
       </c>
@@ -13245,7 +13280,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>215</v>
       </c>
@@ -13268,7 +13303,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>216</v>
       </c>
@@ -13291,7 +13326,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>216</v>
       </c>
@@ -13314,7 +13349,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>216</v>
       </c>
@@ -13337,7 +13372,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>216</v>
       </c>
@@ -13360,7 +13395,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>216</v>
       </c>
@@ -13383,7 +13418,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>216</v>
       </c>
@@ -13406,7 +13441,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>216</v>
       </c>
@@ -13429,7 +13464,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>217</v>
       </c>
@@ -13452,7 +13487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>217</v>
       </c>
@@ -13475,7 +13510,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>217</v>
       </c>
@@ -13498,7 +13533,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>217</v>
       </c>
@@ -13521,7 +13556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>217</v>
       </c>
@@ -13544,7 +13579,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>217</v>
       </c>
@@ -13567,7 +13602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>217</v>
       </c>
@@ -13590,7 +13625,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>218</v>
       </c>
@@ -13613,7 +13648,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>218</v>
       </c>
@@ -13636,7 +13671,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>218</v>
       </c>
@@ -13659,7 +13694,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>218</v>
       </c>
@@ -13682,7 +13717,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>218</v>
       </c>
@@ -13705,7 +13740,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>218</v>
       </c>
@@ -13728,7 +13763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>218</v>
       </c>
@@ -13751,7 +13786,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>219</v>
       </c>
@@ -13774,7 +13809,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>219</v>
       </c>
@@ -13797,7 +13832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>219</v>
       </c>
@@ -13820,7 +13855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>219</v>
       </c>
@@ -13843,7 +13878,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>219</v>
       </c>
@@ -13866,7 +13901,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>219</v>
       </c>
@@ -13889,7 +13924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>219</v>
       </c>
@@ -13912,7 +13947,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>219</v>
       </c>
@@ -13935,7 +13970,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>220</v>
       </c>
@@ -13958,7 +13993,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>220</v>
       </c>
@@ -13981,7 +14016,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>220</v>
       </c>
@@ -14004,7 +14039,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>220</v>
       </c>
@@ -14027,7 +14062,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>220</v>
       </c>
@@ -14050,7 +14085,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>221</v>
       </c>
@@ -14073,7 +14108,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>221</v>
       </c>
@@ -14096,7 +14131,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>221</v>
       </c>
@@ -14119,7 +14154,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>221</v>
       </c>
@@ -14142,7 +14177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>221</v>
       </c>
@@ -14165,7 +14200,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>221</v>
       </c>
@@ -14188,7 +14223,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>221</v>
       </c>
@@ -14211,7 +14246,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>222</v>
       </c>
@@ -14234,7 +14269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>222</v>
       </c>
@@ -14257,7 +14292,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>222</v>
       </c>
@@ -14280,7 +14315,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>222</v>
       </c>
@@ -14303,7 +14338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>222</v>
       </c>
@@ -14326,7 +14361,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>222</v>
       </c>
@@ -14349,7 +14384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>222</v>
       </c>
@@ -14372,7 +14407,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>222</v>
       </c>
@@ -14395,7 +14430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>222</v>
       </c>
@@ -14418,7 +14453,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>222</v>
       </c>
@@ -14441,7 +14476,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>223</v>
       </c>
@@ -14464,7 +14499,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>223</v>
       </c>
@@ -14487,7 +14522,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>223</v>
       </c>
@@ -14510,7 +14545,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>223</v>
       </c>
@@ -14533,7 +14568,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>223</v>
       </c>
@@ -14556,7 +14591,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>223</v>
       </c>
@@ -14579,7 +14614,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>224</v>
       </c>
@@ -14602,7 +14637,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>224</v>
       </c>
@@ -14625,7 +14660,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>224</v>
       </c>
@@ -14648,7 +14683,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>224</v>
       </c>
@@ -14671,7 +14706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>224</v>
       </c>
@@ -14694,7 +14729,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>224</v>
       </c>
@@ -14717,7 +14752,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>224</v>
       </c>
@@ -14740,7 +14775,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>225</v>
       </c>
@@ -14763,7 +14798,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>225</v>
       </c>
@@ -14786,7 +14821,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>225</v>
       </c>
@@ -14809,7 +14844,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>225</v>
       </c>
@@ -14832,7 +14867,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>225</v>
       </c>
@@ -14855,7 +14890,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>225</v>
       </c>
@@ -14878,7 +14913,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>225</v>
       </c>
@@ -14901,7 +14936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>226</v>
       </c>
@@ -14924,7 +14959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>226</v>
       </c>
@@ -14947,7 +14982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>226</v>
       </c>
@@ -14970,7 +15005,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>226</v>
       </c>
@@ -14993,7 +15028,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>226</v>
       </c>
@@ -15016,7 +15051,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>226</v>
       </c>
@@ -15039,7 +15074,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>227</v>
       </c>
@@ -15062,7 +15097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>227</v>
       </c>
@@ -15085,7 +15120,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>227</v>
       </c>
@@ -15108,7 +15143,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>227</v>
       </c>
@@ -15131,7 +15166,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>227</v>
       </c>
@@ -15154,7 +15189,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>227</v>
       </c>
@@ -15177,7 +15212,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>228</v>
       </c>
@@ -15200,7 +15235,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>228</v>
       </c>
@@ -15223,7 +15258,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>228</v>
       </c>
@@ -15246,7 +15281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>228</v>
       </c>
@@ -15269,7 +15304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>228</v>
       </c>
@@ -15292,7 +15327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>228</v>
       </c>
@@ -15315,7 +15350,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>229</v>
       </c>
@@ -15338,7 +15373,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>229</v>
       </c>
@@ -15361,7 +15396,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>229</v>
       </c>
@@ -15384,7 +15419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>229</v>
       </c>
@@ -15407,7 +15442,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>229</v>
       </c>
@@ -15430,7 +15465,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>229</v>
       </c>
@@ -15453,7 +15488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>229</v>
       </c>
@@ -15476,7 +15511,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>229</v>
       </c>
@@ -15499,7 +15534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>229</v>
       </c>
@@ -15522,7 +15557,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>229</v>
       </c>
@@ -15545,7 +15580,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>234</v>
       </c>
@@ -15568,7 +15603,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>234</v>
       </c>
@@ -15591,7 +15626,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>234</v>
       </c>
@@ -15614,7 +15649,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>234</v>
       </c>
@@ -15637,7 +15672,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>234</v>
       </c>
@@ -15660,7 +15695,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>234</v>
       </c>
@@ -15683,7 +15718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>234</v>
       </c>
@@ -15706,7 +15741,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>234</v>
       </c>
@@ -15729,7 +15764,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>234</v>
       </c>
@@ -15752,7 +15787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>236</v>
       </c>
@@ -15775,7 +15810,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>236</v>
       </c>
@@ -15798,7 +15833,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>236</v>
       </c>
@@ -15821,7 +15856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>236</v>
       </c>
@@ -15844,7 +15879,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>236</v>
       </c>
@@ -15867,7 +15902,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>236</v>
       </c>
@@ -15890,7 +15925,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>237</v>
       </c>
@@ -15913,7 +15948,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>237</v>
       </c>
@@ -15936,7 +15971,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>237</v>
       </c>
@@ -15959,7 +15994,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>237</v>
       </c>
@@ -15982,7 +16017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>237</v>
       </c>
@@ -16005,7 +16040,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>237</v>
       </c>
@@ -16028,7 +16063,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>237</v>
       </c>
@@ -16051,7 +16086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>237</v>
       </c>
@@ -16074,7 +16109,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>238</v>
       </c>
@@ -16097,7 +16132,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>238</v>
       </c>
@@ -16120,7 +16155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>238</v>
       </c>
@@ -16143,7 +16178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>238</v>
       </c>
@@ -16166,7 +16201,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>238</v>
       </c>
@@ -16189,7 +16224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>238</v>
       </c>
@@ -16212,7 +16247,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>239</v>
       </c>
@@ -16235,7 +16270,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>239</v>
       </c>
@@ -16258,7 +16293,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>239</v>
       </c>
@@ -16281,7 +16316,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>239</v>
       </c>
@@ -16304,7 +16339,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>239</v>
       </c>
@@ -16327,7 +16362,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>239</v>
       </c>
@@ -16350,7 +16385,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>239</v>
       </c>
@@ -16373,7 +16408,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>240</v>
       </c>
@@ -16396,7 +16431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>240</v>
       </c>
@@ -16419,7 +16454,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>240</v>
       </c>
@@ -16442,7 +16477,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>240</v>
       </c>
@@ -16465,7 +16500,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>240</v>
       </c>
@@ -16488,7 +16523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>240</v>
       </c>
@@ -16511,7 +16546,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>241</v>
       </c>
@@ -16534,7 +16569,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>241</v>
       </c>
@@ -16557,7 +16592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>241</v>
       </c>
@@ -16580,7 +16615,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>241</v>
       </c>
@@ -16603,7 +16638,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>241</v>
       </c>
@@ -16626,7 +16661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>241</v>
       </c>
@@ -16649,7 +16684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>241</v>
       </c>
@@ -16672,7 +16707,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>241</v>
       </c>
@@ -16695,7 +16730,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>241</v>
       </c>
@@ -16718,7 +16753,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>241</v>
       </c>
@@ -16741,7 +16776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>242</v>
       </c>
@@ -16764,7 +16799,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>242</v>
       </c>
@@ -16787,7 +16822,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>242</v>
       </c>
@@ -16810,7 +16845,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>242</v>
       </c>
@@ -16833,7 +16868,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>242</v>
       </c>
@@ -16856,7 +16891,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>242</v>
       </c>
@@ -16879,7 +16914,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>242</v>
       </c>
@@ -16902,7 +16937,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>242</v>
       </c>
@@ -16925,7 +16960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>242</v>
       </c>
@@ -16948,7 +16983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>243</v>
       </c>
@@ -16971,7 +17006,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>243</v>
       </c>
@@ -16994,7 +17029,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>243</v>
       </c>
@@ -17017,7 +17052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>243</v>
       </c>
@@ -17040,7 +17075,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>243</v>
       </c>
@@ -17063,7 +17098,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>243</v>
       </c>
@@ -17086,7 +17121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>244</v>
       </c>
@@ -17109,7 +17144,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>244</v>
       </c>
@@ -17132,7 +17167,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>244</v>
       </c>
@@ -17155,7 +17190,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>244</v>
       </c>
@@ -17178,7 +17213,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>244</v>
       </c>
@@ -17201,7 +17236,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>244</v>
       </c>
@@ -17224,7 +17259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>244</v>
       </c>
@@ -17247,7 +17282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>244</v>
       </c>
@@ -17270,7 +17305,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>245</v>
       </c>
@@ -17293,7 +17328,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>245</v>
       </c>
@@ -17316,7 +17351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>245</v>
       </c>
@@ -17339,7 +17374,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>245</v>
       </c>
@@ -17362,7 +17397,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>245</v>
       </c>
@@ -17385,7 +17420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>245</v>
       </c>
@@ -17408,7 +17443,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>246</v>
       </c>
@@ -17431,7 +17466,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>246</v>
       </c>
@@ -17454,7 +17489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>246</v>
       </c>
@@ -17477,7 +17512,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>246</v>
       </c>
@@ -17500,7 +17535,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>246</v>
       </c>
@@ -17523,7 +17558,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>246</v>
       </c>
@@ -17546,7 +17581,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>246</v>
       </c>
@@ -17569,7 +17604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>246</v>
       </c>
@@ -17592,7 +17627,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>247</v>
       </c>
@@ -17615,7 +17650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>247</v>
       </c>
@@ -17638,7 +17673,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>247</v>
       </c>
@@ -17661,7 +17696,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>247</v>
       </c>
@@ -17684,7 +17719,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>247</v>
       </c>
@@ -17707,7 +17742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>247</v>
       </c>
@@ -17730,7 +17765,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>248</v>
       </c>
@@ -17753,7 +17788,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>248</v>
       </c>
@@ -17776,7 +17811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>248</v>
       </c>
@@ -17799,7 +17834,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>248</v>
       </c>
@@ -17822,7 +17857,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>248</v>
       </c>
@@ -17845,7 +17880,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>248</v>
       </c>
@@ -17868,7 +17903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>248</v>
       </c>
@@ -17891,7 +17926,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>248</v>
       </c>
@@ -17914,7 +17949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>248</v>
       </c>
@@ -17937,7 +17972,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>248</v>
       </c>
@@ -17960,7 +17995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>249</v>
       </c>
@@ -17983,7 +18018,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>249</v>
       </c>
@@ -18006,7 +18041,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>249</v>
       </c>
@@ -18029,7 +18064,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>249</v>
       </c>
@@ -18052,7 +18087,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>249</v>
       </c>
@@ -18075,7 +18110,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>249</v>
       </c>
@@ -18098,7 +18133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>249</v>
       </c>
@@ -18121,7 +18156,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>249</v>
       </c>
@@ -18144,7 +18179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>250</v>
       </c>
@@ -18167,7 +18202,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>250</v>
       </c>
@@ -18190,7 +18225,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>250</v>
       </c>
@@ -18213,7 +18248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>250</v>
       </c>
@@ -18236,7 +18271,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>250</v>
       </c>
@@ -18259,7 +18294,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>250</v>
       </c>
@@ -18282,7 +18317,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="746" spans="1:7">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>251</v>
       </c>
@@ -18305,7 +18340,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="747" spans="1:7">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>251</v>
       </c>
@@ -18328,7 +18363,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>251</v>
       </c>
@@ -18351,7 +18386,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>251</v>
       </c>
@@ -18374,7 +18409,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="750" spans="1:7">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>251</v>
       </c>
@@ -18397,7 +18432,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="751" spans="1:7">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>251</v>
       </c>
@@ -18420,7 +18455,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="752" spans="1:7">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>251</v>
       </c>
@@ -18443,7 +18478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>251</v>
       </c>
@@ -18466,7 +18501,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="754" spans="1:7">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>252</v>
       </c>
@@ -18489,7 +18524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="755" spans="1:7">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>252</v>
       </c>
@@ -18512,7 +18547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="756" spans="1:7">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>252</v>
       </c>
@@ -18535,7 +18570,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="757" spans="1:7">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>252</v>
       </c>
@@ -18558,7 +18593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="758" spans="1:7">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>252</v>
       </c>
@@ -18581,7 +18616,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="759" spans="1:7">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>253</v>
       </c>
@@ -18604,7 +18639,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>253</v>
       </c>
@@ -18627,7 +18662,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>253</v>
       </c>
@@ -18650,7 +18685,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="762" spans="1:7">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>253</v>
       </c>
@@ -18673,7 +18708,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="763" spans="1:7">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>253</v>
       </c>
@@ -18696,7 +18731,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="764" spans="1:7">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>253</v>
       </c>
@@ -18719,7 +18754,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>254</v>
       </c>
@@ -18742,7 +18777,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>254</v>
       </c>
@@ -18765,7 +18800,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>254</v>
       </c>
@@ -18788,7 +18823,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="768" spans="1:7">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>254</v>
       </c>
@@ -18811,7 +18846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="769" spans="1:7">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>254</v>
       </c>
@@ -18834,7 +18869,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="770" spans="1:7">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>255</v>
       </c>
@@ -18857,7 +18892,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="771" spans="1:7">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>255</v>
       </c>
@@ -18880,7 +18915,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="772" spans="1:7">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>255</v>
       </c>
@@ -18903,7 +18938,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="773" spans="1:7">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>255</v>
       </c>
@@ -18926,7 +18961,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="774" spans="1:7">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>255</v>
       </c>
@@ -18949,7 +18984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="775" spans="1:7">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>255</v>
       </c>
@@ -18972,7 +19007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="776" spans="1:7">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>255</v>
       </c>
@@ -18995,7 +19030,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="777" spans="1:7">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>255</v>
       </c>
@@ -19018,7 +19053,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="778" spans="1:7">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>255</v>
       </c>
@@ -19041,7 +19076,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="779" spans="1:7">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>255</v>
       </c>
@@ -19064,7 +19099,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="780" spans="1:7">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>256</v>
       </c>
@@ -19087,7 +19122,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="781" spans="1:7">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>256</v>
       </c>
@@ -19110,7 +19145,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="782" spans="1:7">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>256</v>
       </c>
@@ -19133,7 +19168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="783" spans="1:7">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>256</v>
       </c>
@@ -19156,7 +19191,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="784" spans="1:7">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>256</v>
       </c>
@@ -19179,7 +19214,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="785" spans="1:7">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>256</v>
       </c>
@@ -19202,7 +19237,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="786" spans="1:7">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>256</v>
       </c>
@@ -19225,7 +19260,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="787" spans="1:7">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>256</v>
       </c>
@@ -19248,7 +19283,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="788" spans="1:7">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>256</v>
       </c>
@@ -19271,7 +19306,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="789" spans="1:7">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>257</v>
       </c>
@@ -19294,7 +19329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="790" spans="1:7">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>257</v>
       </c>
@@ -19317,7 +19352,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="791" spans="1:7">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>257</v>
       </c>
@@ -19340,7 +19375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="792" spans="1:7">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>257</v>
       </c>
@@ -19363,7 +19398,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="793" spans="1:7">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>257</v>
       </c>
@@ -19386,7 +19421,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="794" spans="1:7">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>257</v>
       </c>
@@ -19409,7 +19444,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="795" spans="1:7">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>258</v>
       </c>
@@ -19432,7 +19467,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="796" spans="1:7">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>258</v>
       </c>
@@ -19455,7 +19490,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="797" spans="1:7">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>258</v>
       </c>
@@ -19478,7 +19513,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="798" spans="1:7">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>258</v>
       </c>
@@ -19501,7 +19536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="799" spans="1:7">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>258</v>
       </c>
@@ -19524,7 +19559,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="800" spans="1:7">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>258</v>
       </c>
@@ -19547,7 +19582,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="801" spans="1:7">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>258</v>
       </c>
@@ -19570,7 +19605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="802" spans="1:7">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>258</v>
       </c>
@@ -19593,7 +19628,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="803" spans="1:7">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>260</v>
       </c>
@@ -19616,7 +19651,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="804" spans="1:7">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>260</v>
       </c>
@@ -19639,7 +19674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="805" spans="1:7">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>260</v>
       </c>
@@ -19662,7 +19697,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="806" spans="1:7">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>260</v>
       </c>
@@ -19685,7 +19720,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="807" spans="1:7">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>260</v>
       </c>
@@ -19708,7 +19743,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="808" spans="1:7">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>260</v>
       </c>
@@ -19731,7 +19766,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="809" spans="1:7">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>260</v>
       </c>
@@ -19754,7 +19789,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>261</v>
       </c>
@@ -19777,7 +19812,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="811" spans="1:7">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>261</v>
       </c>
@@ -19800,7 +19835,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="812" spans="1:7">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>261</v>
       </c>
@@ -19823,7 +19858,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="813" spans="1:7">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>261</v>
       </c>
@@ -19846,7 +19881,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="814" spans="1:7">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>261</v>
       </c>
@@ -19869,7 +19904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="815" spans="1:7">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>261</v>
       </c>
@@ -19892,7 +19927,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="816" spans="1:7">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>261</v>
       </c>
@@ -19915,7 +19950,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="817" spans="1:7">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>262</v>
       </c>
@@ -19938,7 +19973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="818" spans="1:7">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>262</v>
       </c>
@@ -19961,7 +19996,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="819" spans="1:7">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>262</v>
       </c>
@@ -19984,7 +20019,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="820" spans="1:7">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>262</v>
       </c>
@@ -20007,7 +20042,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="821" spans="1:7">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>262</v>
       </c>
@@ -20030,7 +20065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="822" spans="1:7">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>262</v>
       </c>
@@ -20055,5 +20090,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>